--- a/カレンダー_単体テスト.xlsx
+++ b/カレンダー_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427741C5-9D03-4892-BEDF-865346CFCCDF}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D5F45B-77D6-41BD-83BD-7CE718683A42}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="245">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2585,13 +2585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.「ログイン」ボタンを押す</t>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー表示画面</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -2815,22 +2808,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントをクリックすると、イベント情報欄にイベント情報が表示されるか</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「カレンダー」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2855,16 +2832,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ログイン情報を入力</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「today」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2945,12 +2912,129 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントタイトルと開催日が表示されている</t>
+    <t>1.ログイン情報を入力し、「ログイン」ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.カレンダー画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントをクリックすると、イベント情報欄にイベント情報（タイトル、開催期間、参加人数）が表示されるか</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントタイトル、開催日、参加人数が表示されている</t>
     <rPh sb="9" eb="12">
       <t>カイサイビ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['error']がセットされているときに、エラーメッセージが表示されるか。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクトされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、index.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクセス権限がありません。」</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.管理者権限「一般」で、「管理者」権限の画面にアクセスする</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3032,7 +3116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3052,6 +3136,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4559,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4573,7 +4660,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4586,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4613,12 +4700,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45833</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4657,16 +4744,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4675,7 +4766,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -4691,16 +4782,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4709,7 +4804,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -4725,16 +4820,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4743,7 +4842,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -4759,16 +4858,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4777,7 +4880,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -4785,20 +4888,28 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4807,7 +4918,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4815,20 +4926,28 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4837,7 +4956,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4845,20 +4964,28 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4867,7 +4994,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4875,20 +5002,28 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4897,7 +5032,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4905,20 +5040,28 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4927,12 +5070,84 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5004,7 +5219,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5043,13 +5258,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="3">
         <v>45840</v>
@@ -5065,7 +5280,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -5081,13 +5296,13 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G10" s="3">
         <v>45840</v>
@@ -5103,7 +5318,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -5119,13 +5334,13 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G12" s="3">
         <v>45840</v>
@@ -5141,7 +5356,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5157,13 +5372,13 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G14" s="3">
         <v>45840</v>
@@ -5179,7 +5394,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -5195,13 +5410,13 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G16" s="3">
         <v>45840</v>
@@ -5217,7 +5432,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
